--- a/Анализ.xlsx
+++ b/Анализ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F45125-DAB1-4A95-A721-887783722FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143C794-0349-49F7-B032-E9604C531777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
   <si>
     <t>generate</t>
   </si>
   <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>rsa_v1_5</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>0.00752</t>
   </si>
   <si>
-    <t>import</t>
-  </si>
-  <si>
     <t>0.03400</t>
   </si>
   <si>
@@ -283,13 +265,34 @@
     <t>0.00301</t>
   </si>
   <si>
-    <t>0.00000</t>
-  </si>
-  <si>
     <t>No hash</t>
   </si>
   <si>
     <t>Import</t>
+  </si>
+  <si>
+    <t>алгоритм</t>
+  </si>
+  <si>
+    <t>Хэш</t>
+  </si>
+  <si>
+    <t>подпись, сек</t>
+  </si>
+  <si>
+    <t>проверка, сек</t>
+  </si>
+  <si>
+    <t>всего, сек</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>Создание ключа</t>
+  </si>
+  <si>
+    <t>Импорт ключа</t>
   </si>
 </sst>
 </file>
@@ -305,12 +308,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -377,11 +398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,8 +413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3073,114 +3100,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4609375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.07421875" customWidth="1"/>
+    <col min="11" max="11" width="14.53515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>6</v>
+      <c r="J5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <v>1.2660499999999999</v>
@@ -3191,43 +3223,43 @@
       <c r="R5" s="1">
         <v>0.86377999999999999</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="P6" s="1">
         <v>0.64761999999999997</v>
@@ -3238,43 +3270,43 @@
       <c r="R6" s="1">
         <v>0.78541000000000005</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P7" s="1">
         <v>11.477499999999999</v>
@@ -3285,43 +3317,43 @@
       <c r="R7" s="1">
         <v>0.28760999999999998</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>38</v>
+      <c r="O8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="P8" s="1">
         <v>1.149E-2</v>
@@ -3332,380 +3364,380 @@
       <c r="R8" s="1">
         <v>1.102E-2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7.0099999999999997E-3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>7.5199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="6" t="s">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>7.0099999999999997E-3</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
-        <v>7.5199999999999998E-3</v>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>6</v>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>3.7519999999999998E-2</v>
@@ -3716,13 +3748,13 @@
       <c r="E22" s="1">
         <v>3.551E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>19</v>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="1">
         <v>3.5749999999999997E-2</v>
@@ -3733,13 +3765,13 @@
       <c r="E23" s="1">
         <v>3.4880000000000001E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>28</v>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>0.16295999999999999</v>
@@ -3750,13 +3782,13 @@
       <c r="E24" s="1">
         <v>0.16034000000000001</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>38</v>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>8.5199999999999998E-3</v>
@@ -3767,38 +3799,38 @@
       <c r="E25" s="1">
         <v>1.753E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>3.0100000000000001E-3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="1">

--- a/Анализ.xlsx
+++ b/Анализ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143C794-0349-49F7-B032-E9604C531777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1380FB0-91F9-437F-9038-21FC4FCCBC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,6 +404,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,15 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,7 +478,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> время работы алгоритмов подписи ген </a:t>
+              <a:t> время работы алгоритмов подписи </a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -872,6 +872,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -938,6 +968,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1487,6 +1579,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1554,6 +1676,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2764,8 +2946,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -3100,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3118,20 +3300,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -3187,13 +3369,13 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3202,13 +3384,13 @@
       <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -3234,13 +3416,13 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -3249,13 +3431,13 @@
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -3281,13 +3463,13 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -3296,13 +3478,13 @@
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -3328,13 +3510,13 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -3343,13 +3525,13 @@
       <c r="I8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -3375,13 +3557,13 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -3390,13 +3572,13 @@
       <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -3422,13 +3604,13 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -3437,13 +3619,13 @@
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -3469,13 +3651,13 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -3484,13 +3666,13 @@
       <c r="I11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3501,13 +3683,13 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -3516,13 +3698,13 @@
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3533,13 +3715,13 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -3548,13 +3730,13 @@
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3565,13 +3747,13 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -3580,13 +3762,13 @@
       <c r="I14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3597,13 +3779,13 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3612,13 +3794,13 @@
       <c r="I15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3629,13 +3811,13 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -3644,13 +3826,13 @@
       <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3661,13 +3843,13 @@
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -3676,13 +3858,13 @@
       <c r="I17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3693,13 +3875,13 @@
       <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3708,13 +3890,13 @@
       <c r="I18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Анализ.xlsx
+++ b/Анализ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1380FB0-91F9-437F-9038-21FC4FCCBC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B24550B-6095-4C05-B0EA-68E44BDB8EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18720" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,6 +428,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3282,24 +3288,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.15234375" customWidth="1"/>
-    <col min="2" max="2" width="10.69140625" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" customWidth="1"/>
-    <col min="5" max="5" width="12.69140625" customWidth="1"/>
-    <col min="6" max="6" width="13.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.07421875" customWidth="1"/>
-    <col min="11" max="11" width="14.53515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>89</v>
       </c>
@@ -3315,7 +3321,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
@@ -3362,11 +3368,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3378,10 +3384,10 @@
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -3409,11 +3415,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3425,10 +3431,10 @@
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -3456,11 +3462,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3472,10 +3478,10 @@
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -3503,11 +3509,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3519,10 +3525,10 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -3550,11 +3556,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -3566,10 +3572,10 @@
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -3597,11 +3603,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -3613,10 +3619,10 @@
       <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -3644,11 +3650,11 @@
         <v>7.5199999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -3660,10 +3666,10 @@
       <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -3676,11 +3682,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3692,10 +3698,10 @@
       <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -3708,11 +3714,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3724,10 +3730,10 @@
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -3740,11 +3746,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3756,10 +3762,10 @@
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -3772,11 +3778,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3788,10 +3794,10 @@
       <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -3804,11 +3810,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3820,10 +3826,10 @@
       <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -3836,11 +3842,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3852,10 +3858,10 @@
       <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -3868,11 +3874,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3884,10 +3890,10 @@
       <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -3900,7 +3906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
